--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.2070385306158</v>
+        <v>393.0231766166609</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.1213966551285</v>
+        <v>537.7516492057465</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.3077054656044</v>
+        <v>486.4293865447293</v>
       </c>
       <c r="AD2" t="n">
-        <v>320207.0385306157</v>
+        <v>393023.1766166609</v>
       </c>
       <c r="AE2" t="n">
-        <v>438121.3966551285</v>
+        <v>537751.6492057465</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437136672241135e-06</v>
+        <v>2.429550849685752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>396307.7054656044</v>
+        <v>486429.3865447292</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.5235869300334</v>
+        <v>286.5960974614915</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.8855180879616</v>
+        <v>392.1334242742843</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.2606546073949</v>
+        <v>354.7087606242634</v>
       </c>
       <c r="AD3" t="n">
-        <v>234523.5869300335</v>
+        <v>286596.0974614915</v>
       </c>
       <c r="AE3" t="n">
-        <v>320885.5180879616</v>
+        <v>392133.4242742843</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.810857563247352e-06</v>
+        <v>3.061344558542639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.18923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>290260.6546073949</v>
+        <v>354708.7606242634</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.1273101257949</v>
+        <v>258.114479802681</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.0324794091043</v>
+        <v>353.1636184732094</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.1156954094532</v>
+        <v>319.4581783943771</v>
       </c>
       <c r="AD4" t="n">
-        <v>206127.3101257949</v>
+        <v>258114.479802681</v>
       </c>
       <c r="AE4" t="n">
-        <v>282032.4794091043</v>
+        <v>353163.6184732094</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.955808330416711e-06</v>
+        <v>3.306391022348852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.35590277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>255115.6954094532</v>
+        <v>319458.1783943771</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.0426621952063</v>
+        <v>248.3588857135472</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.551778038356</v>
+        <v>339.8155842538602</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.2577136081137</v>
+        <v>307.384061826941</v>
       </c>
       <c r="AD5" t="n">
-        <v>186042.6621952063</v>
+        <v>248358.8857135472</v>
       </c>
       <c r="AE5" t="n">
-        <v>254551.778038356</v>
+        <v>339815.5842538602</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026182978245314e-06</v>
+        <v>3.425362856225782e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>230257.7136081137</v>
+        <v>307384.061826941</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.6432747942677</v>
+        <v>326.1919088467202</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.7824067586623</v>
+        <v>446.3101602554664</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.3996647804112</v>
+        <v>403.7149449609279</v>
       </c>
       <c r="AD2" t="n">
-        <v>255643.2747942677</v>
+        <v>326191.9088467202</v>
       </c>
       <c r="AE2" t="n">
-        <v>349782.4067586623</v>
+        <v>446310.1602554664</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658717189341729e-06</v>
+        <v>2.87255151245964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>316399.6647804112</v>
+        <v>403714.9449609279</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.6395286769699</v>
+        <v>247.0071165502493</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.0508782594522</v>
+        <v>337.9660340487902</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.373040053728</v>
+        <v>305.7110300975822</v>
       </c>
       <c r="AD3" t="n">
-        <v>196639.5286769699</v>
+        <v>247007.1165502493</v>
       </c>
       <c r="AE3" t="n">
-        <v>269050.8782594522</v>
+        <v>337966.0340487902</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.001307218782152e-06</v>
+        <v>3.465845844697933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.47743055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>243373.040053728</v>
+        <v>305711.0300975823</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.6758033664292</v>
+        <v>237.0433912397086</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.4180697210398</v>
+        <v>324.3332255103779</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.0413276284505</v>
+        <v>293.3793176723047</v>
       </c>
       <c r="AD4" t="n">
-        <v>186675.8033664292</v>
+        <v>237043.3912397086</v>
       </c>
       <c r="AE4" t="n">
-        <v>255418.0697210398</v>
+        <v>324333.2255103779</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.087437655419732e-06</v>
+        <v>3.615005760337487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.04340277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>231041.3276284505</v>
+        <v>293379.3176723047</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6682126920184</v>
+        <v>203.159789409574</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.7286044357486</v>
+        <v>277.9721866473986</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1397692054605</v>
+        <v>251.4429112902667</v>
       </c>
       <c r="AD2" t="n">
-        <v>157668.2126920184</v>
+        <v>203159.789409574</v>
       </c>
       <c r="AE2" t="n">
-        <v>215728.6044357486</v>
+        <v>277972.1866473986</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275873449111424e-06</v>
+        <v>4.306442310288049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>195139.7692054605</v>
+        <v>251442.9112902667</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3554843519601</v>
+        <v>235.2499281712225</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.0338421788802</v>
+        <v>321.87933021807</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.7435947850473</v>
+        <v>291.1596187026302</v>
       </c>
       <c r="AD2" t="n">
-        <v>178355.4843519602</v>
+        <v>235249.9281712225</v>
       </c>
       <c r="AE2" t="n">
-        <v>244033.8421788802</v>
+        <v>321879.33021807</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.094848731412662e-06</v>
+        <v>3.816359440321338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>220743.5947850473</v>
+        <v>291159.6187026302</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.7655669815926</v>
+        <v>215.1634695304337</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.5442500385691</v>
+        <v>294.3961513537427</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.6368689823326</v>
+        <v>266.2993958562218</v>
       </c>
       <c r="AD3" t="n">
-        <v>167765.5669815926</v>
+        <v>215163.4695304337</v>
       </c>
       <c r="AE3" t="n">
-        <v>229544.2500385692</v>
+        <v>294396.1513537427</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226050651467915e-06</v>
+        <v>4.055380844913875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>207636.8689823326</v>
+        <v>266299.3958562218</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.3513539187486</v>
+        <v>203.0819128665801</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.7173554651386</v>
+        <v>277.8656325256038</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.0839797857262</v>
+        <v>251.3465265443064</v>
       </c>
       <c r="AD2" t="n">
-        <v>150351.3539187486</v>
+        <v>203081.9128665801</v>
       </c>
       <c r="AE2" t="n">
-        <v>205717.3554651387</v>
+        <v>277865.6325256038</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.283121449190106e-06</v>
+        <v>4.474182417613932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.64236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>186083.9797857262</v>
+        <v>251346.5265443064</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.997947918868</v>
+        <v>337.142552494409</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.9501273438437</v>
+        <v>461.2933140025359</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.2152379973584</v>
+        <v>417.2681275433656</v>
       </c>
       <c r="AD2" t="n">
-        <v>265997.947918868</v>
+        <v>337142.552494409</v>
       </c>
       <c r="AE2" t="n">
-        <v>363950.1273438437</v>
+        <v>461293.3140025359</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599906313056645e-06</v>
+        <v>2.752608745037487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.98611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>329215.2379973584</v>
+        <v>417268.1275433656</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.787687260685</v>
+        <v>264.7565853462123</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.8313041881863</v>
+        <v>362.2516403068846</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.2200358587409</v>
+        <v>327.6788521793651</v>
       </c>
       <c r="AD3" t="n">
-        <v>203787.687260685</v>
+        <v>264756.5853462123</v>
       </c>
       <c r="AE3" t="n">
-        <v>278831.3041881863</v>
+        <v>362251.6403068845</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949229999591007e-06</v>
+        <v>3.353613582980879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>252220.0358587409</v>
+        <v>327678.8521793651</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.114596025573</v>
+        <v>239.9078771296321</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.7549334292172</v>
+        <v>328.2525414771678</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.0597257476382</v>
+        <v>296.92457962402</v>
       </c>
       <c r="AD4" t="n">
-        <v>189114.596025573</v>
+        <v>239907.8771296321</v>
       </c>
       <c r="AE4" t="n">
-        <v>258754.9334292172</v>
+        <v>328252.5414771678</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.073161180065145e-06</v>
+        <v>3.566834849983813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>234059.7257476382</v>
+        <v>296924.57962402</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>189.6607778865951</v>
+        <v>240.4540589906543</v>
       </c>
       <c r="AB5" t="n">
-        <v>259.5022435473104</v>
+        <v>328.999851595261</v>
       </c>
       <c r="AC5" t="n">
-        <v>234.7357136369172</v>
+        <v>297.6005675132989</v>
       </c>
       <c r="AD5" t="n">
-        <v>189660.7778865951</v>
+        <v>240454.0589906543</v>
       </c>
       <c r="AE5" t="n">
-        <v>259502.2435473104</v>
+        <v>328999.851595261</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.072132209074531e-06</v>
+        <v>3.565064524731615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>234735.7136369171</v>
+        <v>297600.5675132989</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5104832688979</v>
+        <v>198.1299953118532</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.4621067947616</v>
+        <v>271.0902004640457</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.3302846726604</v>
+        <v>245.2177322093226</v>
       </c>
       <c r="AD2" t="n">
-        <v>146510.4832688979</v>
+        <v>198129.9953118532</v>
       </c>
       <c r="AE2" t="n">
-        <v>200462.1067947616</v>
+        <v>271090.2004640457</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.26253338698827e-06</v>
+        <v>4.535611031643851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181330.2846726603</v>
+        <v>245217.7322093226</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9651409565907</v>
+        <v>274.850651422483</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.4930335662573</v>
+        <v>376.0627868312043</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.2915931698582</v>
+        <v>340.1718822634697</v>
       </c>
       <c r="AD2" t="n">
-        <v>215965.1409565907</v>
+        <v>274850.651422483</v>
       </c>
       <c r="AE2" t="n">
-        <v>295493.0335662573</v>
+        <v>376062.7868312043</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859257869720373e-06</v>
+        <v>3.292883842963142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>267291.5931698582</v>
+        <v>340171.8822634697</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.3755008425336</v>
+        <v>226.3615082180871</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.6929855074623</v>
+        <v>309.7178019087829</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.530707592445</v>
+        <v>280.1587695863655</v>
       </c>
       <c r="AD3" t="n">
-        <v>177375.5008425336</v>
+        <v>226361.5082180871</v>
       </c>
       <c r="AE3" t="n">
-        <v>242692.9855074623</v>
+        <v>309717.8019087829</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154912063578014e-06</v>
+        <v>3.816509389431604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>219530.707592445</v>
+        <v>280158.7695863655</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.3700824306484</v>
+        <v>226.0849111873941</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.0031306284206</v>
+        <v>309.3393496487892</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.1473932492226</v>
+        <v>279.8164362789043</v>
       </c>
       <c r="AD4" t="n">
-        <v>167370.0824306484</v>
+        <v>226084.9111873941</v>
       </c>
       <c r="AE4" t="n">
-        <v>229003.1306284206</v>
+        <v>309339.3496487892</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161927755488806e-06</v>
+        <v>3.828934701119933e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>207147.3932492226</v>
+        <v>279816.4362789043</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.7329881323517</v>
+        <v>305.660886949288</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.2227153368449</v>
+        <v>418.2187103306392</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.1340912767413</v>
+        <v>378.3045035903287</v>
       </c>
       <c r="AD2" t="n">
-        <v>245732.9881323517</v>
+        <v>305660.886949288</v>
       </c>
       <c r="AE2" t="n">
-        <v>336222.7153368449</v>
+        <v>418218.7103306392</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.720103889247319e-06</v>
+        <v>2.999710984744302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.30034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>304134.0912767413</v>
+        <v>378304.5035903287</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.9598215611048</v>
+        <v>238.8855286842118</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.5431641787645</v>
+        <v>326.8537192313141</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.8681674572286</v>
+        <v>295.6592590100507</v>
       </c>
       <c r="AD3" t="n">
-        <v>188959.8215611048</v>
+        <v>238885.5286842118</v>
       </c>
       <c r="AE3" t="n">
-        <v>258543.1641787645</v>
+        <v>326853.7192313141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065314206957272e-06</v>
+        <v>3.60172763534018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.24305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>233868.1674572286</v>
+        <v>295659.2590100507</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.5696516583673</v>
+        <v>233.4953587814742</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.1680959203294</v>
+        <v>319.4786509728791</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.1969653624029</v>
+        <v>288.9880569152251</v>
       </c>
       <c r="AD4" t="n">
-        <v>183569.6516583672</v>
+        <v>233495.3587814742</v>
       </c>
       <c r="AE4" t="n">
-        <v>251168.0959203294</v>
+        <v>319478.6509728791</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.113163935361779e-06</v>
+        <v>3.685173383477429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>227196.9653624029</v>
+        <v>288988.0569152251</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.1401815625373</v>
+        <v>370.5021588294828</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.9285494303817</v>
+        <v>506.9373991121464</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.9964212040603</v>
+        <v>458.5560052319906</v>
       </c>
       <c r="AD2" t="n">
-        <v>298140.1815625373</v>
+        <v>370502.1588294828</v>
       </c>
       <c r="AE2" t="n">
-        <v>407928.5494303817</v>
+        <v>506937.3991121463</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489164112814877e-06</v>
+        <v>2.531480295380508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.71527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>368996.4212040603</v>
+        <v>458556.0052319906</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.7253632922365</v>
+        <v>278.6645743807637</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.5332033045299</v>
+        <v>381.2811644811298</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.2324905681978</v>
+        <v>344.8922252745253</v>
       </c>
       <c r="AD3" t="n">
-        <v>216725.3632922365</v>
+        <v>278664.5743807637</v>
       </c>
       <c r="AE3" t="n">
-        <v>296533.2033045299</v>
+        <v>381281.1644811298</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.859308201778959e-06</v>
+        <v>3.16070071480961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.98090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>268232.4905681978</v>
+        <v>344892.2252745253</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.7207304173773</v>
+        <v>251.3226056906028</v>
       </c>
       <c r="AB4" t="n">
-        <v>273.2667144137025</v>
+        <v>343.8706766765631</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.1865227223813</v>
+        <v>311.0521419201803</v>
       </c>
       <c r="AD4" t="n">
-        <v>199720.7304173773</v>
+        <v>251322.6056906028</v>
       </c>
       <c r="AE4" t="n">
-        <v>273266.7144137025</v>
+        <v>343870.676676563</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.995700604761719e-06</v>
+        <v>3.392558760285742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>247186.5227223813</v>
+        <v>311052.1419201803</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.8250278656654</v>
+        <v>247.4269031388909</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.9364423161861</v>
+        <v>338.5404045790467</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.3649643127663</v>
+        <v>306.2305835105653</v>
       </c>
       <c r="AD5" t="n">
-        <v>195825.0278656654</v>
+        <v>247426.9031388909</v>
       </c>
       <c r="AE5" t="n">
-        <v>267936.4423161861</v>
+        <v>338540.4045790466</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026287136394907e-06</v>
+        <v>3.444553836897605e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>242364.9643127663</v>
+        <v>306230.5835105653</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.5960971151927</v>
+        <v>245.1596344275443</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.6772562285922</v>
+        <v>335.4382275033477</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.1803391430018</v>
+        <v>303.4244738610372</v>
       </c>
       <c r="AD2" t="n">
-        <v>187596.0971151927</v>
+        <v>245159.6344275443</v>
       </c>
       <c r="AE2" t="n">
-        <v>256677.2562285922</v>
+        <v>335438.2275033477</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010265278636823e-06</v>
+        <v>3.624984006442072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>232180.3391430018</v>
+        <v>303424.4738610372</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.8050568000989</v>
+        <v>218.7605372598476</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.7030141010744</v>
+        <v>299.3178181125527</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.3987264395757</v>
+        <v>270.7513456471753</v>
       </c>
       <c r="AD3" t="n">
-        <v>170805.0568000989</v>
+        <v>218760.5372598476</v>
       </c>
       <c r="AE3" t="n">
-        <v>233703.0141010744</v>
+        <v>299317.8181125527</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204961444815495e-06</v>
+        <v>3.976067266951783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>211398.7264395757</v>
+        <v>270751.3456471753</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.409559941723</v>
+        <v>207.582911093083</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.8476807993834</v>
+        <v>284.0240968691293</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.7702881056205</v>
+        <v>256.9172356943467</v>
       </c>
       <c r="AD2" t="n">
-        <v>161409.559941723</v>
+        <v>207582.911093083</v>
       </c>
       <c r="AE2" t="n">
-        <v>220847.6807993834</v>
+        <v>284024.0968691293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256165775003612e-06</v>
+        <v>4.209284169151284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>199770.2881056205</v>
+        <v>256917.2356943467</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5426586192792</v>
+        <v>207.7160097706392</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.029792281915</v>
+        <v>284.2062083516608</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9350191238543</v>
+        <v>257.0819667125806</v>
       </c>
       <c r="AD3" t="n">
-        <v>161542.6586192792</v>
+        <v>207716.0097706392</v>
       </c>
       <c r="AE3" t="n">
-        <v>221029.792281915</v>
+        <v>284206.2083516609</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260991401044258e-06</v>
+        <v>4.21828724486681e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>199935.0191238543</v>
+        <v>257081.9667125806</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.0681054371135</v>
+        <v>198.8169673235558</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.8027788640675</v>
+        <v>272.0301458775229</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.6840575128994</v>
+        <v>246.0679705517595</v>
       </c>
       <c r="AD2" t="n">
-        <v>154068.1054371135</v>
+        <v>198816.9673235558</v>
       </c>
       <c r="AE2" t="n">
-        <v>210802.7788640675</v>
+        <v>272030.1458775229</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284447013883334e-06</v>
+        <v>4.393076323234654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.42534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>190684.0575128995</v>
+        <v>246067.9705517595</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.2384511581162</v>
+        <v>201.6508516587313</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.931121044009</v>
+        <v>275.9075914470614</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.1819052812802</v>
+        <v>249.5753581581715</v>
       </c>
       <c r="AD2" t="n">
-        <v>151238.4511581162</v>
+        <v>201650.8516587313</v>
       </c>
       <c r="AE2" t="n">
-        <v>206931.121044009</v>
+        <v>275907.5914470614</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189728673282694e-06</v>
+        <v>4.516532875481421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>187181.9052812802</v>
+        <v>249575.3581581715</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.9181437684883</v>
+        <v>295.1190438506596</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.1111711089832</v>
+        <v>403.7948955298015</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.6100347786868</v>
+        <v>365.2572774301318</v>
       </c>
       <c r="AD2" t="n">
-        <v>225918.1437684883</v>
+        <v>295119.0438506596</v>
       </c>
       <c r="AE2" t="n">
-        <v>309111.1711089832</v>
+        <v>403794.8955298015</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784815067138191e-06</v>
+        <v>3.135849665977319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.97048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>279610.0347786868</v>
+        <v>365257.2774301318</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.1968259002072</v>
+        <v>231.6627044051229</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.2897351532179</v>
+        <v>316.9711324041516</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.497872710608</v>
+        <v>286.7198523993718</v>
       </c>
       <c r="AD3" t="n">
-        <v>182196.8259002072</v>
+        <v>231662.7044051229</v>
       </c>
       <c r="AE3" t="n">
-        <v>249289.7351532179</v>
+        <v>316971.1324041516</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12076809148634e-06</v>
+        <v>3.726105877157457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>225497.872710608</v>
+        <v>286719.8523993718</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.6740035757441</v>
+        <v>230.1398820806598</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.206142466709</v>
+        <v>314.8875397176427</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.6131351857582</v>
+        <v>284.8351148745219</v>
       </c>
       <c r="AD4" t="n">
-        <v>180674.0035757441</v>
+        <v>230139.8820806598</v>
       </c>
       <c r="AE4" t="n">
-        <v>247206.142466709</v>
+        <v>314887.5397176427</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.132708382913048e-06</v>
+        <v>3.747084498176244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>223613.1351857582</v>
+        <v>284835.1148745219</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.0137892067269</v>
+        <v>358.6485444130436</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.7049285473746</v>
+        <v>490.7187609230138</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.2257213316412</v>
+        <v>443.8852511086271</v>
       </c>
       <c r="AD2" t="n">
-        <v>287013.7892067269</v>
+        <v>358648.5444130437</v>
       </c>
       <c r="AE2" t="n">
-        <v>392704.9285473746</v>
+        <v>490718.7609230138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543185980987438e-06</v>
+        <v>2.638676051146063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>355225.7213316412</v>
+        <v>443885.2511086271</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.7686355036187</v>
+        <v>272.230735283543</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.382945551864</v>
+        <v>372.478101987364</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.8600819764851</v>
+        <v>336.9293147099887</v>
       </c>
       <c r="AD3" t="n">
-        <v>210768.6355036187</v>
+        <v>272230.735283543</v>
       </c>
       <c r="AE3" t="n">
-        <v>288382.945551864</v>
+        <v>372478.101987364</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897263750730359e-06</v>
+        <v>3.244109578131596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85069444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>260860.0819764851</v>
+        <v>336929.3147099887</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.1338622466097</v>
+        <v>244.3381447626661</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.2542707903481</v>
+        <v>334.3142291022957</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.0342140693929</v>
+        <v>302.4077482898396</v>
       </c>
       <c r="AD4" t="n">
-        <v>193133.8622466096</v>
+        <v>244338.1447626661</v>
       </c>
       <c r="AE4" t="n">
-        <v>264254.2707903481</v>
+        <v>334314.2291022957</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.045395180832523e-06</v>
+        <v>3.497397815484874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>239034.2140693929</v>
+        <v>302407.7482898396</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.6406678149641</v>
+        <v>243.8449503310207</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.5794604107684</v>
+        <v>333.639418722716</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.4238066453377</v>
+        <v>301.7973408657845</v>
       </c>
       <c r="AD5" t="n">
-        <v>192640.6678149641</v>
+        <v>243844.9503310207</v>
       </c>
       <c r="AE5" t="n">
-        <v>263579.4604107684</v>
+        <v>333639.418722716</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051088893712811e-06</v>
+        <v>3.507133429989163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.04340277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>238423.8066453378</v>
+        <v>301797.3408657844</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.9314370595237</v>
+        <v>220.7263441261615</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.298224329323</v>
+        <v>302.0075217923202</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.8915166039319</v>
+        <v>273.1843477827694</v>
       </c>
       <c r="AD2" t="n">
-        <v>163931.4370595237</v>
+        <v>220726.3441261615</v>
       </c>
       <c r="AE2" t="n">
-        <v>224298.224329323</v>
+        <v>302007.5217923202</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260731281397e-06</v>
+        <v>4.291766969330137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>202891.5166039319</v>
+        <v>273184.3477827694</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.9873985255221</v>
+        <v>215.7933670548979</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.2160138603761</v>
+        <v>295.2580049358317</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.1490820113221</v>
+        <v>267.0789953420556</v>
       </c>
       <c r="AD2" t="n">
-        <v>168987.3985255221</v>
+        <v>215793.3670548979</v>
       </c>
       <c r="AE2" t="n">
-        <v>231216.0138603761</v>
+        <v>295258.0049358316</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184062232949928e-06</v>
+        <v>4.023987316678898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>209149.0820113221</v>
+        <v>267078.9953420556</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.7565201554846</v>
+        <v>211.5624886848604</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.4271394213133</v>
+        <v>289.469130496769</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.9126896239854</v>
+        <v>261.8426029547189</v>
       </c>
       <c r="AD3" t="n">
-        <v>164756.5201554846</v>
+        <v>211562.4886848604</v>
       </c>
       <c r="AE3" t="n">
-        <v>225427.1394213133</v>
+        <v>289469.130496769</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243921387352774e-06</v>
+        <v>4.134273770274516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>203912.6896239854</v>
+        <v>261842.6029547189</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.8410975544645</v>
+        <v>264.953090799289</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.0091148590884</v>
+        <v>362.5205077369928</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.9991221428076</v>
+        <v>327.9220592793017</v>
       </c>
       <c r="AD2" t="n">
-        <v>206841.0975544645</v>
+        <v>264953.0907992891</v>
       </c>
       <c r="AE2" t="n">
-        <v>283009.1148590884</v>
+        <v>362520.5077369928</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928908113882076e-06</v>
+        <v>3.445853577052791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>255999.1221428076</v>
+        <v>327922.0592793017</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.2654543128803</v>
+        <v>222.749024171371</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.4376826400235</v>
+        <v>304.7750418645202</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.681524858318</v>
+        <v>275.6877396235183</v>
       </c>
       <c r="AD3" t="n">
-        <v>174265.4543128803</v>
+        <v>222749.024171371</v>
       </c>
       <c r="AE3" t="n">
-        <v>238437.6826400235</v>
+        <v>304775.0418645202</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178024261090231e-06</v>
+        <v>3.890881393972075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>215681.524858318</v>
+        <v>275687.7396235183</v>
       </c>
     </row>
   </sheetData>
